--- a/contents/office2016/access/assets/Clist.xlsx
+++ b/contents/office2016/access/assets/Clist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seiya\RubymineProjects\infolit\contents\office2016\access\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-learn\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A135F0-E83B-4AD3-B000-3A8E2001F265}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="20496" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
   <si>
     <t>氏名</t>
   </si>
@@ -385,9 +384,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>2018/09/01</t>
-  </si>
-  <si>
     <t>理学部生命科学科</t>
   </si>
   <si>
@@ -490,12 +486,6 @@
     <t>都市環境学部地理環境学科</t>
   </si>
   <si>
-    <t>2017/09/27</t>
-  </si>
-  <si>
-    <t>理学部数理科学科</t>
-  </si>
-  <si>
     <t>会員ID</t>
   </si>
   <si>
@@ -505,42 +495,11 @@
     <t>携帯TEL</t>
   </si>
   <si>
-    <t>山本浩史</t>
-  </si>
-  <si>
-    <t>ヤマモトヒロシ</t>
-  </si>
-  <si>
-    <t>221-0023</t>
-  </si>
-  <si>
-    <t>横浜市神奈川区宝町</t>
-  </si>
-  <si>
-    <t>090-5231-0000</t>
-  </si>
-  <si>
-    <t>朝倉紗希</t>
-  </si>
-  <si>
-    <t>アサクラサキ</t>
-  </si>
-  <si>
-    <t>154-0023</t>
-  </si>
-  <si>
-    <t>世田谷区若林4-42-0</t>
-  </si>
-  <si>
-    <t>090-5837-0000</t>
-  </si>
-  <si>
-    <t>理学部生命科学科</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>学部・学科・コース</t>
-    <rPh sb="3" eb="5">
+    <t>学部学科コース</t>
+    <rPh sb="0" eb="2">
+      <t>ガクブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ガッカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -549,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -750,7 +709,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_名簿" xfId="1" xr:uid="{06FCA2DB-1118-4314-9B3A-C01BE60CE2C4}"/>
+    <cellStyle name="標準_名簿" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,26 +1010,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="5" width="13.796875" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.796875" customWidth="1"/>
+    <col min="1" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1085,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -1097,106 +1056,106 @@
         <v>5</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7">
+    <row r="2" spans="1:11" ht="30.75">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.4">
+    </row>
+    <row r="3" spans="1:11" ht="30.75">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4">
+    <row r="4" spans="1:11" ht="30.75">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="7">
         <v>5</v>
@@ -1205,243 +1164,243 @@
         <v>118</v>
       </c>
       <c r="K4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30.75">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
         <v>5</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.4">
+    <row r="6" spans="1:11" ht="44.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42.6">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30.75">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="26.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.4">
+    <row r="10" spans="1:11" ht="30.75">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29.4">
+    <row r="11" spans="1:11" ht="44.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1453,237 +1412,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42.6">
+    <row r="12" spans="1:11" ht="30.75">
       <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29.4">
+    <row r="13" spans="1:11" ht="30.75">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29.4">
+    <row r="14" spans="1:11" ht="27">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4">
+    <row r="15" spans="1:11" ht="30.75">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.4">
+    <row r="16" spans="1:11" ht="30.75">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="29.4">
+    <row r="17" spans="1:11" ht="30.75">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="K17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="26.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30.75">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>142</v>
@@ -1692,149 +1651,79 @@
         <v>5</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K18" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="29.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30.75">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>143</v>
       </c>
       <c r="I19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="K19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29.4">
+    <row r="20" spans="1:11" ht="30.75">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29.4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="7" t="b">
         <v>0</v>
       </c>
     </row>
